--- a/assets/XRAI System - User Parameters.xlsx
+++ b/assets/XRAI System - User Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F6243D-EA0B-4418-B843-1B8BBAB4C427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE2C2E4-04FF-4E7A-AD31-E9117AF93A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{06AA48CC-8E04-4810-8585-EACA79DAA615}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="226">
   <si>
     <t>Parameter</t>
   </si>
@@ -203,9 +203,6 @@
     <t>sum_obs_acc'</t>
   </si>
   <si>
-    <t>Database Column</t>
-  </si>
-  <si>
     <t>Database Table</t>
   </si>
   <si>
@@ -639,13 +636,103 @@
   </si>
   <si>
     <t>cflt_obstacle_risk</t>
+  </si>
+  <si>
+    <t>Parameter Group</t>
+  </si>
+  <si>
+    <t>(Stored in) Database Column</t>
+  </si>
+  <si>
+    <t>Human Size</t>
+  </si>
+  <si>
+    <t>No-Fly Zone Size</t>
+  </si>
+  <si>
+    <t>Building Size</t>
+  </si>
+  <si>
+    <t>Tree Size</t>
+  </si>
+  <si>
+    <t>Animal Size</t>
+  </si>
+  <si>
+    <t>Human Midpoint</t>
+  </si>
+  <si>
+    <t>No-Fly Zone Midpoint</t>
+  </si>
+  <si>
+    <t>Building Midpoint</t>
+  </si>
+  <si>
+    <t>Tree Midpoint</t>
+  </si>
+  <si>
+    <t>Animal Midpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The size of human obstacles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The size of no-fly zones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The size of building obstacles. </t>
+  </si>
+  <si>
+    <t>The size of tree obstacles.</t>
+  </si>
+  <si>
+    <t>The size of animal obstacles.</t>
+  </si>
+  <si>
+    <t>Position of each human obstacle.</t>
+  </si>
+  <si>
+    <t>Position of each building obstacle.</t>
+  </si>
+  <si>
+    <t>Position of each tree obstacle.</t>
+  </si>
+  <si>
+    <t>Position of each animal obstacle.</t>
+  </si>
+  <si>
+    <t>Position of each no-fly zone.</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>humans</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>trees</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>no_fly_zones</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>None set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,13 +754,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -688,10 +789,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,1518 +1136,2169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C250C5-DD24-4718-8E47-C4555C23CD5B}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
-    <col min="3" max="3" width="64.6328125" customWidth="1"/>
-    <col min="4" max="5" width="14" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" customWidth="1"/>
-    <col min="10" max="10" width="37.81640625" customWidth="1"/>
-    <col min="11" max="11" width="36" customWidth="1"/>
-    <col min="12" max="12" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="29.90625" customWidth="1"/>
+    <col min="5" max="5" width="49.26953125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="8" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" customWidth="1"/>
+    <col min="12" max="12" width="37.81640625" customWidth="1"/>
+    <col min="13" max="13" width="36.81640625" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="O1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="str">
-        <f>_xlfn.REGEXREPLACE(LOWER(B2), " ", "_")</f>
+      <c r="L2" s="2" t="str">
+        <f>_xlfn.REGEXREPLACE(LOWER(D2), " ", "_")</f>
         <v>number_of_humans</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" t="s">
         <v>105</v>
       </c>
-      <c r="L2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="O2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J33" si="0">_xlfn.REGEXREPLACE(LOWER(B3), " ", "_")</f>
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L43" si="0">_xlfn.REGEXREPLACE(LOWER(D3), " ", "_")</f>
         <v>number_of_no-fly_zones</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" t="s">
         <v>105</v>
       </c>
-      <c r="L3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="O3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>number_of_buildings</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" t="s">
         <v>105</v>
       </c>
-      <c r="L4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="O4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>number_of_trees</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" t="s">
         <v>105</v>
       </c>
-      <c r="L5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="O5" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>number_of_animals</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" t="s">
         <v>105</v>
       </c>
-      <c r="L6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="O6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>human_collision_damage</v>
       </c>
-      <c r="K7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="M7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="str">
+      <c r="L8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>no-fly_zone_collision_damages</v>
       </c>
-      <c r="K8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="M8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>building_collision_damages</v>
       </c>
-      <c r="K9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="M9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" t="str">
+      <c r="L10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>tree_collision_damages</v>
       </c>
-      <c r="K10" t="s">
-        <v>196</v>
-      </c>
-      <c r="L10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="M10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J11" t="str">
+      <c r="L11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>animal_collision_damage</v>
       </c>
-      <c r="K11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="M11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>human_size</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="O12" t="s">
+        <v>218</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>no-fly_zone_size</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="O13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>building_size</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="O14" t="s">
+        <v>218</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>tree_size</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="O15" t="s">
+        <v>218</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>animal_size</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="O16" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>human_midpoint</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="O17" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>no-fly_zone_midpoint</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="O18" t="s">
+        <v>218</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>building_midpoint</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="O19" t="s">
+        <v>218</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>tree_midpoint</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="O20" t="s">
+        <v>218</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>animal_midpoint</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="O21" t="s">
+        <v>218</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J12" t="str">
+      <c r="L22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>expected_completion_time</v>
       </c>
-      <c r="L12" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="M22" s="2"/>
+      <c r="N22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O22" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
         <v>10</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J13" t="str">
+      <c r="L23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>swarm_damage_tolerance</v>
       </c>
-      <c r="L13" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="M23" s="2"/>
+      <c r="N23" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" t="s">
+        <v>144</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J14" t="str">
+      <c r="L24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>individual_drone_damage_tolerance</v>
       </c>
-      <c r="L14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="M24" s="2"/>
+      <c r="N24" t="s">
+        <v>114</v>
+      </c>
+      <c r="O24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J15" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>avoid_collisions</v>
       </c>
-      <c r="K15" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="M25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J16" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>avoid_buffer_zones</v>
       </c>
-      <c r="K16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="M26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N26" t="s">
+        <v>114</v>
+      </c>
+      <c r="O26" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J17" t="str">
+      <c r="L27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>buffer_zone_size</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" t="s">
         <v>114</v>
       </c>
-      <c r="L17" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="O27" t="s">
+        <v>143</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
         <v>10</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J18" t="str">
+      <c r="L28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>collision_penalty</v>
       </c>
-      <c r="K18" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" t="s">
-        <v>115</v>
-      </c>
-      <c r="M18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="M28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" t="s">
+        <v>114</v>
+      </c>
+      <c r="O28" t="s">
+        <v>143</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
         <v>10</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J19" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>buffer_entry_penalty</v>
       </c>
-      <c r="K19" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="M29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O29" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30" t="s">
+        <v>142</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>100</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" t="s">
+        <v>123</v>
+      </c>
+      <c r="O31" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="N32" t="s">
+        <v>123</v>
+      </c>
+      <c r="O32" t="s">
+        <v>142</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" t="s">
-        <v>182</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N33" t="s">
         <v>123</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>20</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="M20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="N34" t="s">
+        <v>123</v>
+      </c>
+      <c r="O34" t="s">
+        <v>142</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>8</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J21" t="s">
-        <v>183</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L21" t="s">
-        <v>124</v>
-      </c>
-      <c r="M21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="N35" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35" t="s">
+        <v>142</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>9</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N36" t="s">
+        <v>123</v>
+      </c>
+      <c r="O36" t="s">
+        <v>142</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" t="s">
-        <v>185</v>
-      </c>
-      <c r="K23" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" t="s">
-        <v>124</v>
-      </c>
-      <c r="M23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" t="s">
-        <v>125</v>
-      </c>
-      <c r="L24" t="s">
-        <v>124</v>
-      </c>
-      <c r="M24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s">
-        <v>187</v>
-      </c>
-      <c r="K25" t="s">
-        <v>119</v>
-      </c>
-      <c r="L25" t="s">
-        <v>124</v>
-      </c>
-      <c r="M25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" t="s">
-        <v>124</v>
-      </c>
-      <c r="M26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J27" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>torus</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N37" t="s">
+        <v>123</v>
+      </c>
+      <c r="O37" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L27" t="s">
-        <v>124</v>
-      </c>
-      <c r="M27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="N38" t="s">
+        <v>123</v>
+      </c>
+      <c r="O38" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" t="s">
-        <v>124</v>
-      </c>
-      <c r="M28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
+      <c r="H39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
         <v>10</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J29" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>timesteps_per_batch</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N39" t="s">
+        <v>123</v>
+      </c>
+      <c r="O39" t="s">
+        <v>142</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L29" t="s">
-        <v>124</v>
-      </c>
-      <c r="M29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="N40" t="s">
+        <v>123</v>
+      </c>
+      <c r="O40" t="s">
+        <v>142</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>10</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N41" t="s">
+        <v>123</v>
+      </c>
+      <c r="O41" t="s">
+        <v>142</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G30">
-        <v>0.01</v>
-      </c>
-      <c r="H30">
-        <v>0.01</v>
-      </c>
-      <c r="I30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" t="s">
-        <v>190</v>
-      </c>
-      <c r="K30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L30" t="s">
-        <v>124</v>
-      </c>
-      <c r="M30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="I42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N42" t="s">
+        <v>123</v>
+      </c>
+      <c r="O42" t="s">
+        <v>142</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>10</v>
-      </c>
-      <c r="I31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" t="s">
-        <v>191</v>
-      </c>
-      <c r="K31" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" t="s">
-        <v>124</v>
-      </c>
-      <c r="M31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="H43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G32">
-        <v>0.1</v>
-      </c>
-      <c r="H32">
-        <v>0.1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" t="s">
-        <v>192</v>
-      </c>
-      <c r="K32" t="s">
-        <v>88</v>
-      </c>
-      <c r="L32" t="s">
-        <v>124</v>
-      </c>
-      <c r="M32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-      <c r="J33" t="str">
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>gamma</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N43" t="s">
+        <v>123</v>
+      </c>
+      <c r="O43" t="s">
+        <v>142</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L33" t="s">
-        <v>124</v>
-      </c>
-      <c r="M33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="N44" t="s">
+        <v>123</v>
+      </c>
+      <c r="O44" t="s">
+        <v>142</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H45" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G34">
-        <v>0.01</v>
-      </c>
-      <c r="H34">
-        <v>0.98</v>
-      </c>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>5</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L34" t="s">
-        <v>124</v>
-      </c>
-      <c r="M34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="N45" t="s">
+        <v>123</v>
+      </c>
+      <c r="O45" t="s">
+        <v>142</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>5</v>
-      </c>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I46" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L35" t="s">
-        <v>124</v>
-      </c>
-      <c r="M35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36">
-        <v>1E-3</v>
-      </c>
-      <c r="H36">
-        <v>1E-3</v>
-      </c>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" t="s">
-        <v>195</v>
-      </c>
-      <c r="K36" t="s">
-        <v>92</v>
-      </c>
-      <c r="L36" t="s">
-        <v>124</v>
-      </c>
-      <c r="M36" t="s">
-        <v>143</v>
+      <c r="N46" t="s">
+        <v>123</v>
+      </c>
+      <c r="O46" t="s">
+        <v>142</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2561,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2572,10 +3333,10 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2583,10 +3344,10 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
         <v>149</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2594,10 +3355,10 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
-      </c>
-      <c r="C4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2605,10 +3366,10 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
         <v>153</v>
-      </c>
-      <c r="C5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2616,10 +3377,10 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
         <v>155</v>
-      </c>
-      <c r="C6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2627,10 +3388,10 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2638,10 +3399,10 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
         <v>159</v>
-      </c>
-      <c r="C8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2649,10 +3410,10 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
         <v>161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2660,10 +3421,10 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
         <v>163</v>
-      </c>
-      <c r="C10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2671,10 +3432,10 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
         <v>165</v>
-      </c>
-      <c r="C11" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2682,10 +3443,10 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
         <v>167</v>
-      </c>
-      <c r="C12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2693,54 +3454,54 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
         <v>169</v>
-      </c>
-      <c r="C13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
         <v>177</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" t="s">
         <v>179</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2759,10 +3520,10 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/assets/XRAI System - User Parameters.xlsx
+++ b/assets/XRAI System - User Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE2C2E4-04FF-4E7A-AD31-E9117AF93A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC7114-57A6-4A5B-BD10-0A0B6ED8EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{06AA48CC-8E04-4810-8585-EACA79DAA615}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="234">
   <si>
     <t>Parameter</t>
   </si>
@@ -726,6 +726,30 @@
   </si>
   <si>
     <t>None set</t>
+  </si>
+  <si>
+    <t>fires</t>
+  </si>
+  <si>
+    <t>Number of Fires</t>
+  </si>
+  <si>
+    <t>The number of fires to arrange in the environment</t>
+  </si>
+  <si>
+    <t>Fire Collision Damage</t>
+  </si>
+  <si>
+    <t>The damage incurred by colliding with a fire once</t>
+  </si>
+  <si>
+    <t>Fire Size</t>
+  </si>
+  <si>
+    <t>Fire Midpoint</t>
+  </si>
+  <si>
+    <t>Position of each fire obstacle.</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C250C5-DD24-4718-8E47-C4555C23CD5B}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,7 +1316,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L43" si="0">_xlfn.REGEXREPLACE(LOWER(D3), " ", "_")</f>
+        <f t="shared" ref="L3:L47" si="0">_xlfn.REGEXREPLACE(LOWER(D3), " ", "_")</f>
         <v>number_of_no-fly_zones</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -1461,13 +1485,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
@@ -1476,29 +1500,24 @@
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>human_collision_damage</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
+        <v>number_of_fires</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="O7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -1510,13 +1529,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
@@ -1538,7 +1557,7 @@
       </c>
       <c r="L8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>no-fly_zone_collision_damages</v>
+        <v>human_collision_damage</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>195</v>
@@ -1559,13 +1578,13 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
@@ -1587,7 +1606,7 @@
       </c>
       <c r="L9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>building_collision_damages</v>
+        <v>no-fly_zone_collision_damages</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>195</v>
@@ -1608,13 +1627,13 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -1636,7 +1655,7 @@
       </c>
       <c r="L10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>tree_collision_damages</v>
+        <v>building_collision_damages</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>195</v>
@@ -1657,13 +1676,13 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
@@ -1685,7 +1704,7 @@
       </c>
       <c r="L11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>animal_collision_damage</v>
+        <v>tree_collision_damages</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>195</v>
@@ -1706,13 +1725,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -1727,21 +1746,26 @@
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>human_size</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>animal_collision_damage</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
       <c r="O12" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -1750,13 +1774,13 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -1771,21 +1795,21 @@
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>no-fly_zone_size</v>
+        <v>fire_collision_damage</v>
       </c>
       <c r="M13" s="2"/>
       <c r="O13" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -1794,13 +1818,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -1822,7 +1846,7 @@
       </c>
       <c r="L14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>building_size</v>
+        <v>human_size</v>
       </c>
       <c r="M14" s="2"/>
       <c r="O14" t="s">
@@ -1838,13 +1862,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -1866,7 +1890,7 @@
       </c>
       <c r="L15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>tree_size</v>
+        <v>no-fly_zone_size</v>
       </c>
       <c r="M15" s="2"/>
       <c r="O15" t="s">
@@ -1882,13 +1906,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -1910,7 +1934,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>animal_size</v>
+        <v>building_size</v>
       </c>
       <c r="M16" s="2"/>
       <c r="O16" t="s">
@@ -1926,35 +1950,35 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>225</v>
+        <v>47</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>human_midpoint</v>
+        <v>tree_size</v>
       </c>
       <c r="M17" s="2"/>
       <c r="O17" t="s">
@@ -1970,35 +1994,35 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>225</v>
+        <v>47</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>no-fly_zone_midpoint</v>
+        <v>animal_size</v>
       </c>
       <c r="M18" s="2"/>
       <c r="O18" t="s">
@@ -2014,35 +2038,35 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>225</v>
+        <v>47</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>building_midpoint</v>
+        <v>fire_size</v>
       </c>
       <c r="M19" s="2"/>
       <c r="O19" t="s">
@@ -2058,13 +2082,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>40</v>
@@ -2086,7 +2110,7 @@
       </c>
       <c r="L20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>tree_midpoint</v>
+        <v>human_midpoint</v>
       </c>
       <c r="M20" s="2"/>
       <c r="O20" t="s">
@@ -2102,13 +2126,13 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>40</v>
@@ -2130,7 +2154,7 @@
       </c>
       <c r="L21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>animal_midpoint</v>
+        <v>no-fly_zone_midpoint</v>
       </c>
       <c r="M21" s="2"/>
       <c r="O21" t="s">
@@ -2142,228 +2166,220 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>10</v>
+        <v>225</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>expected_completion_time</v>
+        <v>building_midpoint</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" t="s">
-        <v>114</v>
-      </c>
       <c r="O22" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>10</v>
+        <v>225</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>swarm_damage_tolerance</v>
+        <v>tree_midpoint</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s">
-        <v>114</v>
-      </c>
       <c r="O23" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>10</v>
+        <v>225</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>individual_drone_damage_tolerance</v>
+        <v>animal_midpoint</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s">
-        <v>114</v>
-      </c>
       <c r="O24" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2" t="b">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>avoid_collisions</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N25" t="s">
-        <v>114</v>
-      </c>
+        <v>fire_midpoint</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="O25" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="2" t="b">
-        <v>0</v>
+      <c r="J26" s="2">
+        <v>10</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>avoid_buffer_zones</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>expected_completion_time</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" t="s">
         <v>114</v>
       </c>
       <c r="O26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
@@ -2376,10 +2392,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -2388,29 +2404,27 @@
         <v>21</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>buffer_zone_size</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>swarm_damage_tolerance</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s">
         <v>114</v>
       </c>
       <c r="O27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P27" t="b">
         <v>0</v>
@@ -2423,10 +2437,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -2435,7 +2449,7 @@
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
@@ -2448,16 +2462,14 @@
       </c>
       <c r="L28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>collision_penalty</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>individual_drone_damage_tolerance</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s">
         <v>114</v>
       </c>
       <c r="O28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
@@ -2470,35 +2482,35 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
-      <c r="J29" s="2">
-        <v>10</v>
+      <c r="J29" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>buffer_entry_penalty</v>
+        <v>avoid_collisions</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N29" t="s">
         <v>114</v>
@@ -2512,45 +2524,46 @@
     </row>
     <row r="30" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>42</v>
+      <c r="J30" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>181</v>
+        <v>27</v>
+      </c>
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>avoid_buffer_zones</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="N30" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
@@ -2558,15 +2571,15 @@
     </row>
     <row r="31" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
@@ -2575,160 +2588,163 @@
         <v>21</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>182</v>
+      <c r="L31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>buffer_zone_size</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N31" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>50</v>
+      <c r="J32" s="2">
+        <v>10</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>183</v>
+        <v>20</v>
+      </c>
+      <c r="L32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>collision_penalty</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N32" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>184</v>
+        <v>20</v>
+      </c>
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>buffer_entry_penalty</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N33" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
-      <c r="J34" s="2">
-        <v>20</v>
+      <c r="J34" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N34" t="s">
         <v>123</v>
@@ -2747,10 +2763,10 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -2759,22 +2775,22 @@
         <v>21</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" s="2">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N35" t="s">
         <v>123</v>
@@ -2786,41 +2802,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
-      <c r="J36" s="2">
-        <v>9</v>
+      <c r="J36" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N36" t="s">
         <v>123</v>
@@ -2832,42 +2848,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
-      <c r="J37" s="2" t="b">
-        <v>0</v>
+      <c r="J37" s="2">
+        <v>2</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>torus</v>
+        <v>57</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N37" t="s">
         <v>123</v>
@@ -2879,41 +2894,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" t="s">
-        <v>71</v>
+        <v>21</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>72</v>
+      <c r="J38" s="2">
+        <v>20</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N38" t="s">
         <v>123</v>
@@ -2925,17 +2940,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -2944,23 +2959,22 @@
         <v>21</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>timesteps_per_batch</v>
+      <c r="L39" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="N39" t="s">
         <v>123</v>
@@ -2972,41 +2986,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="I40" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2">
-        <v>0.01</v>
+        <v>9</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="N40" t="s">
         <v>123</v>
@@ -3018,41 +3032,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
-      <c r="J41" s="2">
-        <v>10</v>
+      <c r="J41" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>190</v>
+        <v>27</v>
+      </c>
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>torus</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="N41" t="s">
         <v>123</v>
@@ -3066,39 +3081,39 @@
     </row>
     <row r="42" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
       </c>
       <c r="I42" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="N42" t="s">
         <v>123</v>
@@ -3117,35 +3132,35 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="L43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>gamma</v>
+        <v>timesteps_per_batch</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N43" t="s">
         <v>123</v>
@@ -3157,17 +3172,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>55</v>
@@ -3176,22 +3191,22 @@
         <v>21</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I44" s="2">
         <v>0.01</v>
       </c>
       <c r="J44" s="2">
-        <v>0.98</v>
+        <v>0.01</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>57</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N44" t="s">
         <v>123</v>
@@ -3203,17 +3218,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
@@ -3222,22 +3237,22 @@
         <v>21</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N45" t="s">
         <v>123</v>
@@ -3249,17 +3264,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>55</v>
@@ -3268,22 +3283,22 @@
         <v>21</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I46" s="2">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="J46" s="2">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N46" t="s">
         <v>123</v>
@@ -3292,6 +3307,191 @@
         <v>142</v>
       </c>
       <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>gamma</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N47" t="s">
+        <v>123</v>
+      </c>
+      <c r="O47" t="s">
+        <v>142</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N48" t="s">
+        <v>123</v>
+      </c>
+      <c r="O48" t="s">
+        <v>142</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>5</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N49" t="s">
+        <v>123</v>
+      </c>
+      <c r="O49" t="s">
+        <v>142</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N50" t="s">
+        <v>123</v>
+      </c>
+      <c r="O50" t="s">
+        <v>142</v>
+      </c>
+      <c r="P50" t="b">
         <v>0</v>
       </c>
     </row>

--- a/assets/XRAI System - User Parameters.xlsx
+++ b/assets/XRAI System - User Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC7114-57A6-4A5B-BD10-0A0B6ED8EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8030648-B23F-4172-B81A-EC8F92A97EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{06AA48CC-8E04-4810-8585-EACA79DAA615}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="246">
   <si>
     <t>Parameter</t>
   </si>
@@ -750,6 +750,42 @@
   </si>
   <si>
     <t>Position of each fire obstacle.</t>
+  </si>
+  <si>
+    <t>Random Human Positions</t>
+  </si>
+  <si>
+    <t>Random No-Fly Zone Positions</t>
+  </si>
+  <si>
+    <t>Random Building Positions</t>
+  </si>
+  <si>
+    <t>Random Tree Positions</t>
+  </si>
+  <si>
+    <t>Random Animal Positions</t>
+  </si>
+  <si>
+    <t>Random Fire Positions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if human positions should be randomly generated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if no-fly zone positions should be randomly generated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if building positions should be randomly generated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if tree positions should be randomly generated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if animal positions should be randomly generated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if fire positions should be randomly generated. </t>
   </si>
 </sst>
 </file>
@@ -1160,31 +1196,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C250C5-DD24-4718-8E47-C4555C23CD5B}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="29.90625" customWidth="1"/>
-    <col min="5" max="5" width="49.26953125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" customWidth="1"/>
-    <col min="12" max="12" width="37.81640625" customWidth="1"/>
-    <col min="13" max="13" width="36.81640625" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" customWidth="1"/>
+    <col min="4" max="4" width="49.26953125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="37.81640625" customWidth="1"/>
+    <col min="12" max="12" width="36.81640625" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -1192,2306 +1227,2512 @@
         <v>196</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="M1" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="N1" s="5" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>219</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="str">
-        <f>_xlfn.REGEXREPLACE(LOWER(D2), " ", "_")</f>
+      <c r="K2" s="2" t="str">
+        <f>_xlfn.REGEXREPLACE(LOWER(C2), " ", "_")</f>
         <v>number_of_humans</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
       <c r="N2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" t="s">
         <v>142</v>
       </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L47" si="0">_xlfn.REGEXREPLACE(LOWER(D3), " ", "_")</f>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K53" si="0">_xlfn.REGEXREPLACE(LOWER(C3), " ", "_")</f>
         <v>number_of_no-fly_zones</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="M3" t="s">
+        <v>105</v>
+      </c>
       <c r="N3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" t="s">
         <v>142</v>
       </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="2" t="str">
+      <c r="K4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>number_of_buildings</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="M4" t="s">
+        <v>105</v>
+      </c>
       <c r="N4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" t="s">
         <v>142</v>
       </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>number_of_trees</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="M5" t="s">
+        <v>105</v>
+      </c>
       <c r="N5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5" t="s">
         <v>142</v>
       </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>number_of_animals</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="M6" t="s">
+        <v>105</v>
+      </c>
       <c r="N6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O6" t="s">
         <v>142</v>
       </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="2" t="str">
+      <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>number_of_fires</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="O7" t="s">
+      <c r="L7" s="2"/>
+      <c r="N7" t="s">
         <v>142</v>
       </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
       <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
         <v>10</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="2" t="str">
+      <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>human_collision_damage</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="M8" t="s">
+        <v>105</v>
+      </c>
       <c r="N8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" t="s">
         <v>143</v>
       </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>223</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
       <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
         <v>10</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="2" t="str">
+      <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>no-fly_zone_collision_damages</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="M9" t="s">
+        <v>105</v>
+      </c>
       <c r="N9" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" t="s">
         <v>143</v>
       </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
       <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
         <v>10</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>building_collision_damages</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="M10" t="s">
+        <v>105</v>
+      </c>
       <c r="N10" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" t="s">
         <v>143</v>
       </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
       <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
         <v>10</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>tree_collision_damages</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="M11" t="s">
+        <v>105</v>
+      </c>
       <c r="N11" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" t="s">
         <v>143</v>
       </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
       <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
         <v>10</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="2" t="str">
+      <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>animal_collision_damage</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="M12" t="s">
+        <v>105</v>
+      </c>
       <c r="N12" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" t="s">
         <v>143</v>
       </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
       <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
         <v>10</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="2" t="str">
+      <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>fire_collision_damage</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="O13" t="s">
+      <c r="L13" s="2"/>
+      <c r="N13" t="s">
         <v>143</v>
       </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
       <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
         <v>3</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="2" t="str">
+      <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>human_size</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="O14" t="s">
+      <c r="L14" s="2"/>
+      <c r="N14" t="s">
         <v>218</v>
       </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
       <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
         <v>3</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="2" t="str">
+      <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>no-fly_zone_size</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="O15" t="s">
+      <c r="L15" s="2"/>
+      <c r="N15" t="s">
         <v>218</v>
       </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
       <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
         <v>3</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="2" t="str">
+      <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>building_size</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="O16" t="s">
+      <c r="L16" s="2"/>
+      <c r="N16" t="s">
         <v>218</v>
       </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
       <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
         <v>3</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="2" t="str">
+      <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>tree_size</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="O17" t="s">
+      <c r="L17" s="2"/>
+      <c r="N17" t="s">
         <v>218</v>
       </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
       <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
         <v>3</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="2" t="str">
+      <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>animal_size</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="O18" t="s">
+      <c r="L18" s="2"/>
+      <c r="N18" t="s">
         <v>218</v>
       </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
       <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="2" t="str">
+      <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>fire_size</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="O19" t="s">
+      <c r="L19" s="2"/>
+      <c r="N19" t="s">
         <v>218</v>
       </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="C20" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>random_human_positions</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="N20" t="s">
+        <v>218</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>random_no-fly_zone_positions</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>random_building_positions</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>random_tree_positions</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="N23" t="s">
+        <v>218</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>random_animal_positions</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="N24" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>random_fire_positions</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="2" t="str">
+      <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>human_midpoint</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="O20" t="s">
+      <c r="L26" s="2"/>
+      <c r="N26" t="s">
         <v>218</v>
       </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="2" t="str">
+      <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>no-fly_zone_midpoint</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="O21" t="s">
+      <c r="L27" s="2"/>
+      <c r="N27" t="s">
         <v>218</v>
       </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="2" t="str">
+      <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>building_midpoint</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="O22" t="s">
+      <c r="L28" s="2"/>
+      <c r="N28" t="s">
         <v>218</v>
       </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="2" t="str">
+      <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>tree_midpoint</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="O23" t="s">
+      <c r="L29" s="2"/>
+      <c r="N29" t="s">
         <v>218</v>
       </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="2" t="str">
+      <c r="K30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>animal_midpoint</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="O24" t="s">
+      <c r="L30" s="2"/>
+      <c r="N30" t="s">
         <v>218</v>
       </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="2" t="str">
+      <c r="K31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>fire_midpoint</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="O25" t="s">
+      <c r="L31" s="2"/>
+      <c r="N31" t="s">
         <v>218</v>
       </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
         <v>10</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="2" t="str">
+      <c r="K32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>expected_completion_time</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s">
+      <c r="L32" s="2"/>
+      <c r="M32" t="s">
         <v>114</v>
       </c>
-      <c r="O26" t="s">
+      <c r="N32" t="s">
         <v>144</v>
       </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
         <v>10</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="2" t="str">
+      <c r="K33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>swarm_damage_tolerance</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s">
+      <c r="L33" s="2"/>
+      <c r="M33" t="s">
         <v>114</v>
       </c>
-      <c r="O27" t="s">
+      <c r="N33" t="s">
         <v>144</v>
       </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
         <v>10</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="2" t="str">
+      <c r="K34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>individual_drone_damage_tolerance</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s">
+      <c r="L34" s="2"/>
+      <c r="M34" t="s">
         <v>114</v>
       </c>
-      <c r="O28" t="s">
+      <c r="N34" t="s">
         <v>144</v>
       </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="2" t="str">
+      <c r="K35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>avoid_collisions</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N29" t="s">
+      <c r="M35" t="s">
         <v>114</v>
       </c>
-      <c r="O29" t="s">
+      <c r="N35" t="s">
         <v>143</v>
       </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="2" t="str">
+      <c r="K36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>avoid_buffer_zones</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N30" t="s">
+      <c r="M36" t="s">
         <v>114</v>
       </c>
-      <c r="O30" t="s">
+      <c r="N36" t="s">
         <v>143</v>
       </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="2" t="str">
+      <c r="K37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>buffer_zone_size</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N31" t="s">
+      <c r="M37" t="s">
         <v>114</v>
       </c>
-      <c r="O31" t="s">
+      <c r="N37" t="s">
         <v>143</v>
       </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
         <v>10</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="2" t="str">
+      <c r="K38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>collision_penalty</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N32" t="s">
+      <c r="M38" t="s">
         <v>114</v>
       </c>
-      <c r="O32" t="s">
+      <c r="N38" t="s">
         <v>143</v>
       </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
         <v>10</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="2" t="str">
+      <c r="K39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>buffer_entry_penalty</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N33" t="s">
+      <c r="M39" t="s">
         <v>114</v>
       </c>
-      <c r="O33" t="s">
+      <c r="N39" t="s">
         <v>143</v>
       </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N34" t="s">
-        <v>123</v>
-      </c>
-      <c r="O34" t="s">
-        <v>142</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
-        <v>100</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N35" t="s">
-        <v>123</v>
-      </c>
-      <c r="O35" t="s">
-        <v>142</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N36" t="s">
-        <v>123</v>
-      </c>
-      <c r="O36" t="s">
-        <v>142</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
-      <c r="J37" s="2">
-        <v>2</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N37" t="s">
-        <v>123</v>
-      </c>
-      <c r="O37" t="s">
-        <v>142</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="2">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2">
-        <v>20</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N38" t="s">
-        <v>123</v>
-      </c>
-      <c r="O38" t="s">
-        <v>142</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2">
-        <v>8</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N39" t="s">
-        <v>123</v>
-      </c>
-      <c r="O39" t="s">
-        <v>142</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="M40" t="s">
+        <v>123</v>
       </c>
       <c r="N40" t="s">
-        <v>123</v>
-      </c>
-      <c r="O40" t="s">
         <v>142</v>
       </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>100</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M41" t="s">
+        <v>123</v>
+      </c>
+      <c r="N41" t="s">
+        <v>142</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M42" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" t="s">
+        <v>142</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N43" t="s">
+        <v>142</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>20</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M44" t="s">
+        <v>123</v>
+      </c>
+      <c r="N44" t="s">
+        <v>142</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>8</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M45" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" t="s">
+        <v>142</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>9</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46" t="s">
+        <v>142</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L41" s="2" t="str">
+      <c r="K47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>torus</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N41" t="s">
+      <c r="M47" t="s">
         <v>123</v>
       </c>
-      <c r="O41" t="s">
+      <c r="N47" t="s">
         <v>142</v>
       </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G48" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2" t="s">
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N42" t="s">
+      <c r="M48" t="s">
         <v>123</v>
       </c>
-      <c r="O42" t="s">
+      <c r="N48" t="s">
         <v>142</v>
       </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I43" s="2">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2">
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
         <v>10</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="2" t="str">
+      <c r="K49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>timesteps_per_batch</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N43" t="s">
+      <c r="M49" t="s">
         <v>123</v>
       </c>
-      <c r="O43" t="s">
+      <c r="N49" t="s">
         <v>142</v>
       </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="87" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I44" s="2">
+      <c r="H50" s="2">
         <v>0.01</v>
       </c>
-      <c r="J44" s="2">
+      <c r="I50" s="2">
         <v>0.01</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N44" t="s">
+      <c r="M50" t="s">
         <v>123</v>
       </c>
-      <c r="O44" t="s">
+      <c r="N50" t="s">
         <v>142</v>
       </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="2">
-        <v>1</v>
-      </c>
-      <c r="J45" s="2">
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
         <v>10</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N45" t="s">
+      <c r="M51" t="s">
         <v>123</v>
       </c>
-      <c r="O45" t="s">
+      <c r="N51" t="s">
         <v>142</v>
       </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I46" s="2">
+      <c r="H52" s="2">
         <v>0.1</v>
       </c>
-      <c r="J46" s="2">
+      <c r="I52" s="2">
         <v>0.1</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N46" t="s">
+      <c r="M52" t="s">
         <v>123</v>
       </c>
-      <c r="O46" t="s">
+      <c r="N52" t="s">
         <v>142</v>
       </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I47" s="2">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="2" t="str">
+      <c r="K53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>gamma</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N47" t="s">
+      <c r="M53" t="s">
         <v>123</v>
       </c>
-      <c r="O47" t="s">
+      <c r="N53" t="s">
         <v>142</v>
       </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I48" s="2">
+      <c r="H54" s="2">
         <v>0.01</v>
       </c>
-      <c r="J48" s="2">
+      <c r="I54" s="2">
         <v>0.98</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N48" t="s">
+      <c r="M54" t="s">
         <v>123</v>
       </c>
-      <c r="O48" t="s">
+      <c r="N54" t="s">
         <v>142</v>
       </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I49" s="2">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2">
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
         <v>5</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N49" t="s">
+      <c r="M55" t="s">
         <v>123</v>
       </c>
-      <c r="O49" t="s">
+      <c r="N55" t="s">
         <v>142</v>
       </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I50" s="2">
+      <c r="H56" s="2">
         <v>1E-3</v>
       </c>
-      <c r="J50" s="2">
+      <c r="I56" s="2">
         <v>1E-3</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N50" t="s">
+      <c r="M56" t="s">
         <v>123</v>
       </c>
-      <c r="O50" t="s">
+      <c r="N56" t="s">
         <v>142</v>
       </c>
-      <c r="P50" t="b">
+      <c r="O56" t="b">
         <v>0</v>
       </c>
     </row>

--- a/assets/XRAI System - User Parameters.xlsx
+++ b/assets/XRAI System - User Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8030648-B23F-4172-B81A-EC8F92A97EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F067AE7C-EB3B-4797-B96A-EA7716630E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{06AA48CC-8E04-4810-8585-EACA79DAA615}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="254">
   <si>
     <t>Parameter</t>
   </si>
@@ -786,6 +786,30 @@
   </si>
   <si>
     <t xml:space="preserve">Indicates if fire positions should be randomly generated. </t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>[0,100]</t>
+  </si>
+  <si>
+    <t>Rendezvous X-Coordinate</t>
+  </si>
+  <si>
+    <t>Rendezvous Y-Coordinate</t>
+  </si>
+  <si>
+    <t>Rendezvous X-coordinate</t>
+  </si>
+  <si>
+    <t>Rendezvous Y-coordinate</t>
+  </si>
+  <si>
+    <t>target_x_coordinate</t>
+  </si>
+  <si>
+    <t>target_y_coordinate</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C250C5-DD24-4718-8E47-C4555C23CD5B}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,46 +1290,39 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="G2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="str">
-        <f>_xlfn.REGEXREPLACE(LOWER(C2), " ", "_")</f>
-        <v>number_of_humans</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" t="s">
-        <v>105</v>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>252</v>
       </c>
       <c r="N2" t="s">
         <v>142</v>
@@ -1314,46 +1331,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="G3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K53" si="0">_xlfn.REGEXREPLACE(LOWER(C3), " ", "_")</f>
-        <v>number_of_no-fly_zones</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" t="s">
-        <v>105</v>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>253</v>
       </c>
       <c r="N3" t="s">
         <v>142</v>
@@ -1367,13 +1377,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -1394,8 +1404,8 @@
         <v>20</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>number_of_buildings</v>
+        <f>_xlfn.REGEXREPLACE(LOWER(C4), " ", "_")</f>
+        <v>number_of_humans</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>104</v>
@@ -1415,13 +1425,13 @@
         <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -1442,8 +1452,8 @@
         <v>20</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>number_of_trees</v>
+        <f t="shared" ref="K5:K55" si="0">_xlfn.REGEXREPLACE(LOWER(C5), " ", "_")</f>
+        <v>number_of_no-fly_zones</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>104</v>
@@ -1463,13 +1473,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -1491,7 +1501,7 @@
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>number_of_animals</v>
+        <v>number_of_buildings</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>104</v>
@@ -1511,13 +1521,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>227</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -1539,9 +1549,14 @@
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>number_of_fires</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>number_of_trees</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" t="s">
+        <v>105</v>
+      </c>
       <c r="N7" t="s">
         <v>142</v>
       </c>
@@ -1554,13 +1569,13 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1569,29 +1584,29 @@
         <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>human_collision_damage</v>
+        <v>number_of_animals</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="M8" t="s">
         <v>105</v>
       </c>
       <c r="N8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1602,13 +1617,13 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
@@ -1617,29 +1632,24 @@
         <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>no-fly_zone_collision_damages</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M9" t="s">
-        <v>105</v>
-      </c>
+        <v>number_of_fires</v>
+      </c>
+      <c r="L9" s="2"/>
       <c r="N9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1650,13 +1660,13 @@
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1678,7 +1688,7 @@
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>building_collision_damages</v>
+        <v>human_collision_damage</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>195</v>
@@ -1698,13 +1708,13 @@
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -1726,7 +1736,7 @@
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>tree_collision_damages</v>
+        <v>no-fly_zone_collision_damages</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>195</v>
@@ -1746,13 +1756,13 @@
         <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
@@ -1774,7 +1784,7 @@
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>animal_collision_damage</v>
+        <v>building_collision_damages</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>195</v>
@@ -1794,13 +1804,13 @@
         <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
@@ -1822,9 +1832,14 @@
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fire_collision_damage</v>
-      </c>
-      <c r="L13" s="2"/>
+        <v>tree_collision_damages</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M13" t="s">
+        <v>105</v>
+      </c>
       <c r="N13" t="s">
         <v>143</v>
       </c>
@@ -1837,13 +1852,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
@@ -1858,21 +1873,26 @@
         <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>human_size</v>
-      </c>
-      <c r="L14" s="2"/>
+        <v>animal_collision_damage</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M14" t="s">
+        <v>105</v>
+      </c>
       <c r="N14" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="O14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -1880,13 +1900,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -1901,21 +1921,21 @@
         <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>no-fly_zone_size</v>
+        <v>fire_collision_damage</v>
       </c>
       <c r="L15" s="2"/>
       <c r="N15" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="O15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -1923,13 +1943,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1951,7 +1971,7 @@
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>building_size</v>
+        <v>human_size</v>
       </c>
       <c r="L16" s="2"/>
       <c r="N16" t="s">
@@ -1966,13 +1986,13 @@
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
@@ -1994,7 +2014,7 @@
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>tree_size</v>
+        <v>no-fly_zone_size</v>
       </c>
       <c r="L17" s="2"/>
       <c r="N17" t="s">
@@ -2009,13 +2029,13 @@
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
@@ -2037,7 +2057,7 @@
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>animal_size</v>
+        <v>building_size</v>
       </c>
       <c r="L18" s="2"/>
       <c r="N18" t="s">
@@ -2052,13 +2072,13 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -2080,7 +2100,7 @@
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fire_size</v>
+        <v>tree_size</v>
       </c>
       <c r="L19" s="2"/>
       <c r="N19" t="s">
@@ -2095,99 +2115,99 @@
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>1</v>
+      <c r="I20" s="2">
+        <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>random_human_positions</v>
+        <v>animal_size</v>
       </c>
       <c r="L20" s="2"/>
       <c r="N20" t="s">
         <v>218</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>1</v>
+      <c r="I21" s="2">
+        <v>3</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>random_no-fly_zone_positions</v>
+        <v>fire_size</v>
       </c>
       <c r="L21" s="2"/>
       <c r="N21" t="s">
         <v>218</v>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -2209,7 +2229,7 @@
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>random_building_positions</v>
+        <v>random_human_positions</v>
       </c>
       <c r="L22" s="2"/>
       <c r="N22" t="s">
@@ -2219,18 +2239,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -2252,7 +2272,7 @@
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>random_tree_positions</v>
+        <v>random_no-fly_zone_positions</v>
       </c>
       <c r="L23" s="2"/>
       <c r="N23" t="s">
@@ -2262,18 +2282,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -2295,7 +2315,7 @@
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>random_animal_positions</v>
+        <v>random_building_positions</v>
       </c>
       <c r="L24" s="2"/>
       <c r="N24" t="s">
@@ -2310,13 +2330,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -2338,7 +2358,7 @@
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>random_fire_positions</v>
+        <v>random_tree_positions</v>
       </c>
       <c r="L25" s="2"/>
       <c r="N25" t="s">
@@ -2353,42 +2373,42 @@
         <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>225</v>
+        <v>26</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>human_midpoint</v>
+        <v>random_animal_positions</v>
       </c>
       <c r="L26" s="2"/>
       <c r="N26" t="s">
         <v>218</v>
       </c>
       <c r="O26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -2396,42 +2416,42 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>225</v>
+        <v>26</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>no-fly_zone_midpoint</v>
+        <v>random_fire_positions</v>
       </c>
       <c r="L27" s="2"/>
       <c r="N27" t="s">
         <v>218</v>
       </c>
       <c r="O27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -2439,13 +2459,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>40</v>
@@ -2467,7 +2487,7 @@
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>building_midpoint</v>
+        <v>human_midpoint</v>
       </c>
       <c r="L28" s="2"/>
       <c r="N28" t="s">
@@ -2482,13 +2502,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>40</v>
@@ -2510,7 +2530,7 @@
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>tree_midpoint</v>
+        <v>no-fly_zone_midpoint</v>
       </c>
       <c r="L29" s="2"/>
       <c r="N29" t="s">
@@ -2525,13 +2545,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>40</v>
@@ -2553,7 +2573,7 @@
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>animal_midpoint</v>
+        <v>building_midpoint</v>
       </c>
       <c r="L30" s="2"/>
       <c r="N30" t="s">
@@ -2568,13 +2588,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>40</v>
@@ -2596,7 +2616,7 @@
       </c>
       <c r="K31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fire_midpoint</v>
+        <v>tree_midpoint</v>
       </c>
       <c r="L31" s="2"/>
       <c r="N31" t="s">
@@ -2608,102 +2628,100 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>10</v>
+        <v>225</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>expected_completion_time</v>
+        <v>animal_midpoint</v>
       </c>
       <c r="L32" s="2"/>
-      <c r="M32" t="s">
-        <v>114</v>
-      </c>
       <c r="N32" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="C33" s="2" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2">
-        <v>10</v>
+        <v>225</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>swarm_damage_tolerance</v>
+        <v>fire_midpoint</v>
       </c>
       <c r="L33" s="2"/>
-      <c r="M33" t="s">
-        <v>114</v>
-      </c>
       <c r="N33" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -2725,7 +2743,7 @@
       </c>
       <c r="K34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>individual_drone_damage_tolerance</v>
+        <v>expected_completion_time</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" t="s">
@@ -2744,41 +2762,39 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="2" t="b">
-        <v>1</v>
+      <c r="I35" s="2">
+        <v>10</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>avoid_collisions</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>swarm_damage_tolerance</v>
+      </c>
+      <c r="L35" s="2"/>
       <c r="M35" t="s">
         <v>114</v>
       </c>
       <c r="N35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -2790,41 +2806,39 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
       </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
+      <c r="I36" s="2">
+        <v>10</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>avoid_buffer_zones</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>individual_drone_damage_tolerance</v>
+      </c>
+      <c r="L36" s="2"/>
       <c r="M36" t="s">
         <v>114</v>
       </c>
       <c r="N36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -2836,35 +2850,35 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
       </c>
-      <c r="I37" s="2">
-        <v>0</v>
+      <c r="I37" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>buffer_zone_size</v>
+        <v>avoid_collisions</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M37" t="s">
         <v>114</v>
@@ -2882,35 +2896,35 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
       </c>
-      <c r="I38" s="2">
-        <v>10</v>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>collision_penalty</v>
+        <v>avoid_buffer_zones</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M38" t="s">
         <v>114</v>
@@ -2928,10 +2942,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -2940,23 +2954,23 @@
         <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>buffer_entry_penalty</v>
+        <v>buffer_zone_size</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M39" t="s">
         <v>114</v>
@@ -2970,44 +2984,45 @@
     </row>
     <row r="40" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>42</v>
+      <c r="I40" s="2">
+        <v>10</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>181</v>
+        <v>20</v>
+      </c>
+      <c r="K40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>collision_penalty</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="N40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -3015,14 +3030,14 @@
     </row>
     <row r="41" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>16</v>
@@ -3031,43 +3046,44 @@
         <v>21</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>182</v>
+      <c r="K41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>buffer_entry_penalty</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M41" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="N41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>40</v>
@@ -3075,23 +3091,23 @@
       <c r="F42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G42" t="s">
-        <v>49</v>
+      <c r="G42" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>50</v>
+      <c r="I42" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M42" t="s">
         <v>123</v>
@@ -3103,40 +3119,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
       </c>
       <c r="I43" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M43" t="s">
         <v>123</v>
@@ -3154,34 +3170,34 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
       </c>
       <c r="H44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="2">
-        <v>20</v>
+      <c r="I44" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M44" t="s">
         <v>123</v>
@@ -3193,40 +3209,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H45" s="2">
         <v>1</v>
       </c>
       <c r="I45" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M45" t="s">
         <v>123</v>
@@ -3238,16 +3254,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>16</v>
@@ -3256,22 +3272,22 @@
         <v>21</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
       <c r="I46" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M46" t="s">
         <v>123</v>
@@ -3289,35 +3305,34 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
       </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
+      <c r="I47" s="2">
+        <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>torus</v>
+        <v>20</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M47" t="s">
         <v>123</v>
@@ -3335,34 +3350,34 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" t="s">
-        <v>71</v>
+        <v>21</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>72</v>
+      <c r="I48" s="2">
+        <v>9</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M48" t="s">
         <v>123</v>
@@ -3374,41 +3389,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="2">
-        <v>10</v>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>timesteps_per_batch</v>
+        <v>torus</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="M49" t="s">
         <v>123</v>
@@ -3420,40 +3435,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
       </c>
       <c r="H50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="M50" t="s">
         <v>123</v>
@@ -3465,16 +3480,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>16</v>
@@ -3483,7 +3498,7 @@
         <v>21</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
@@ -3494,11 +3509,12 @@
       <c r="J51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>190</v>
+      <c r="K51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>timesteps_per_batch</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M51" t="s">
         <v>123</v>
@@ -3510,16 +3526,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>55</v>
@@ -3528,22 +3544,22 @@
         <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H52" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I52" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M52" t="s">
         <v>123</v>
@@ -3555,131 +3571,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2">
+        <v>10</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" t="s">
+        <v>123</v>
+      </c>
+      <c r="N53" t="s">
+        <v>142</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M54" t="s">
+        <v>123</v>
+      </c>
+      <c r="N54" t="s">
+        <v>142</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H53" s="2">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2">
-        <v>1</v>
-      </c>
-      <c r="J53" s="2" t="s">
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K53" s="2" t="str">
+      <c r="K55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>gamma</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="M53" t="s">
-        <v>123</v>
-      </c>
-      <c r="N53" t="s">
-        <v>142</v>
-      </c>
-      <c r="O53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M54" t="s">
-        <v>123</v>
-      </c>
-      <c r="N54" t="s">
-        <v>142</v>
-      </c>
-      <c r="O54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H55" s="2">
-        <v>1</v>
-      </c>
-      <c r="I55" s="2">
-        <v>5</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="M55" t="s">
         <v>123</v>
@@ -3697,10 +3713,10 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>55</v>
@@ -3709,22 +3725,22 @@
         <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H56" s="2">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I56" s="2">
-        <v>1E-3</v>
+        <v>0.98</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M56" t="s">
         <v>123</v>
@@ -3733,6 +3749,96 @@
         <v>142</v>
       </c>
       <c r="O56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>5</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M57" t="s">
+        <v>123</v>
+      </c>
+      <c r="N57" t="s">
+        <v>142</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M58" t="s">
+        <v>123</v>
+      </c>
+      <c r="N58" t="s">
+        <v>142</v>
+      </c>
+      <c r="O58" t="b">
         <v>0</v>
       </c>
     </row>

--- a/assets/XRAI System - User Parameters.xlsx
+++ b/assets/XRAI System - User Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F067AE7C-EB3B-4797-B96A-EA7716630E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F02651-0D65-4AD1-9625-59BF313D4BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{06AA48CC-8E04-4810-8585-EACA79DAA615}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="260">
   <si>
     <t>Parameter</t>
   </si>
@@ -344,24 +344,15 @@
     <t>Value Function Step Size</t>
   </si>
   <si>
-    <t>[10, 1000]</t>
-  </si>
-  <si>
     <t>[0, 0.1]</t>
   </si>
   <si>
     <t>[0, 1]</t>
   </si>
   <si>
-    <t>[0,1]</t>
-  </si>
-  <si>
     <t>[1, 10]</t>
   </si>
   <si>
-    <t>[0, 0.01]</t>
-  </si>
-  <si>
     <t>cstr_obstacle</t>
   </si>
   <si>
@@ -810,6 +801,33 @@
   </si>
   <si>
     <t>target_y_coordinate</t>
+  </si>
+  <si>
+    <t>(26, 34)</t>
+  </si>
+  <si>
+    <t>(10, 10)</t>
+  </si>
+  <si>
+    <t>(82, 46)</t>
+  </si>
+  <si>
+    <t>(13, 55)</t>
+  </si>
+  <si>
+    <t>(20, 70)</t>
+  </si>
+  <si>
+    <t>(30, 40)</t>
+  </si>
+  <si>
+    <t>[10, 10000]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.01]</t>
+  </si>
+  <si>
+    <t>[0.9,1]</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C250C5-DD24-4718-8E47-C4555C23CD5B}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,7 +1266,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1266,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -1278,16 +1296,16 @@
         <v>6</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>51</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -1295,13 +1313,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1310,7 +1328,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1322,10 +1340,10 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -1336,13 +1354,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
         <v>246</v>
       </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1351,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1363,10 +1381,10 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -1377,7 +1395,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1408,13 +1426,13 @@
         <v>number_of_humans</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -1425,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -1456,13 +1474,13 @@
         <v>number_of_no-fly_zones</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -1473,7 +1491,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1504,13 +1522,13 @@
         <v>number_of_buildings</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -1521,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1552,13 +1570,13 @@
         <v>number_of_trees</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -1569,7 +1587,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1600,13 +1618,13 @@
         <v>number_of_animals</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1617,13 +1635,13 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
@@ -1649,7 +1667,7 @@
       </c>
       <c r="L9" s="2"/>
       <c r="N9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1660,13 +1678,13 @@
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1691,13 +1709,13 @@
         <v>human_collision_damage</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1708,13 +1726,13 @@
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -1739,13 +1757,13 @@
         <v>no-fly_zone_collision_damages</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1756,13 +1774,13 @@
         <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
@@ -1787,13 +1805,13 @@
         <v>building_collision_damages</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1804,13 +1822,13 @@
         <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
@@ -1835,13 +1853,13 @@
         <v>tree_collision_damages</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1852,13 +1870,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
@@ -1883,13 +1901,13 @@
         <v>animal_collision_damage</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1900,13 +1918,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -1932,7 +1950,7 @@
       </c>
       <c r="L15" s="2"/>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1943,13 +1961,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1975,7 +1993,7 @@
       </c>
       <c r="L16" s="2"/>
       <c r="N16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -1986,13 +2004,13 @@
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
@@ -2018,7 +2036,7 @@
       </c>
       <c r="L17" s="2"/>
       <c r="N17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
@@ -2029,13 +2047,13 @@
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
@@ -2061,7 +2079,7 @@
       </c>
       <c r="L18" s="2"/>
       <c r="N18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -2072,13 +2090,13 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -2104,7 +2122,7 @@
       </c>
       <c r="L19" s="2"/>
       <c r="N19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -2115,13 +2133,13 @@
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
@@ -2147,7 +2165,7 @@
       </c>
       <c r="L20" s="2"/>
       <c r="N20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -2158,13 +2176,13 @@
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
@@ -2190,7 +2208,7 @@
       </c>
       <c r="L21" s="2"/>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -2201,13 +2219,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -2222,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>27</v>
@@ -2233,10 +2251,10 @@
       </c>
       <c r="L22" s="2"/>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -2244,13 +2262,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -2265,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>27</v>
@@ -2276,10 +2294,10 @@
       </c>
       <c r="L23" s="2"/>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -2287,13 +2305,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -2308,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>27</v>
@@ -2319,10 +2337,10 @@
       </c>
       <c r="L24" s="2"/>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -2330,13 +2348,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -2351,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>27</v>
@@ -2362,10 +2380,10 @@
       </c>
       <c r="L25" s="2"/>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -2373,13 +2391,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -2394,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>27</v>
@@ -2405,10 +2423,10 @@
       </c>
       <c r="L26" s="2"/>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -2416,13 +2434,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
@@ -2437,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>27</v>
@@ -2448,10 +2466,10 @@
       </c>
       <c r="L27" s="2"/>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -2459,13 +2477,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>40</v>
@@ -2474,13 +2492,13 @@
         <v>70</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>20</v>
@@ -2491,10 +2509,10 @@
       </c>
       <c r="L28" s="2"/>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -2502,13 +2520,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>40</v>
@@ -2517,13 +2535,13 @@
         <v>70</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>20</v>
@@ -2534,10 +2552,10 @@
       </c>
       <c r="L29" s="2"/>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -2545,13 +2563,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>40</v>
@@ -2560,13 +2578,13 @@
         <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>20</v>
@@ -2577,10 +2595,10 @@
       </c>
       <c r="L30" s="2"/>
       <c r="N30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -2588,13 +2606,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>40</v>
@@ -2603,13 +2621,13 @@
         <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>20</v>
@@ -2620,10 +2638,10 @@
       </c>
       <c r="L31" s="2"/>
       <c r="N31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -2631,13 +2649,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>40</v>
@@ -2646,13 +2664,13 @@
         <v>70</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>20</v>
@@ -2663,10 +2681,10 @@
       </c>
       <c r="L32" s="2"/>
       <c r="N32" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -2674,13 +2692,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>40</v>
@@ -2689,13 +2707,13 @@
         <v>70</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>20</v>
@@ -2706,10 +2724,10 @@
       </c>
       <c r="L33" s="2"/>
       <c r="N33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -2718,10 +2736,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -2747,10 +2765,10 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -2762,10 +2780,10 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
@@ -2791,10 +2809,10 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -2806,10 +2824,10 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
@@ -2835,10 +2853,10 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -2878,13 +2896,13 @@
         <v>avoid_collisions</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
@@ -2924,13 +2942,13 @@
         <v>avoid_buffer_zones</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -2942,10 +2960,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -2954,7 +2972,7 @@
         <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -2970,13 +2988,13 @@
         <v>buffer_zone_size</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -3016,13 +3034,13 @@
         <v>collision_penalty</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -3062,13 +3080,13 @@
         <v>buffer_entry_penalty</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
@@ -3104,16 +3122,16 @@
         <v>43</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
@@ -3149,16 +3167,16 @@
         <v>20</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
@@ -3194,16 +3212,16 @@
         <v>43</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -3239,16 +3257,16 @@
         <v>57</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
@@ -3284,16 +3302,16 @@
         <v>20</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
@@ -3329,16 +3347,16 @@
         <v>20</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
@@ -3374,16 +3392,16 @@
         <v>20</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
@@ -3423,13 +3441,13 @@
         <v>torus</v>
       </c>
       <c r="L49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" t="s">
         <v>120</v>
       </c>
-      <c r="M49" t="s">
-        <v>123</v>
-      </c>
       <c r="N49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
@@ -3465,16 +3483,16 @@
         <v>43</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
@@ -3498,7 +3516,7 @@
         <v>21</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
@@ -3517,10 +3535,10 @@
         <v>84</v>
       </c>
       <c r="M51" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>
@@ -3544,7 +3562,7 @@
         <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H52" s="2">
         <v>0.01</v>
@@ -3556,16 +3574,16 @@
         <v>57</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>85</v>
       </c>
       <c r="M52" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O52" t="b">
         <v>0</v>
@@ -3601,16 +3619,16 @@
         <v>20</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>86</v>
       </c>
       <c r="M53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N53" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O53" t="b">
         <v>0</v>
@@ -3634,7 +3652,7 @@
         <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H54" s="2">
         <v>0.1</v>
@@ -3646,16 +3664,16 @@
         <v>57</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O54" t="b">
         <v>0</v>
@@ -3679,7 +3697,7 @@
         <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -3698,10 +3716,10 @@
         <v>88</v>
       </c>
       <c r="M55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N55" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O55" t="b">
         <v>0</v>
@@ -3725,7 +3743,7 @@
         <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="H56" s="2">
         <v>0.01</v>
@@ -3737,16 +3755,16 @@
         <v>57</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O56" t="b">
         <v>0</v>
@@ -3770,7 +3788,7 @@
         <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
@@ -3782,16 +3800,16 @@
         <v>57</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M57" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N57" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O57" t="b">
         <v>0</v>
@@ -3815,7 +3833,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="H58" s="2">
         <v>1E-3</v>
@@ -3824,19 +3842,19 @@
         <v>1E-3</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O58" t="b">
         <v>0</v>
@@ -3869,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3880,10 +3898,10 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3891,10 +3909,10 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3902,10 +3920,10 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3913,10 +3931,10 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3924,10 +3942,10 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3935,10 +3953,10 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3946,10 +3964,10 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3957,10 +3975,10 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3968,10 +3986,10 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3979,10 +3997,10 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3990,10 +4008,10 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4001,10 +4019,10 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4012,10 +4030,10 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -4023,10 +4041,10 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -4034,10 +4052,10 @@
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -4045,10 +4063,10 @@
         <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -4067,10 +4085,10 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/assets/XRAI System - User Parameters.xlsx
+++ b/assets/XRAI System - User Parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F02651-0D65-4AD1-9625-59BF313D4BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66086542-0C3A-4A54-AE2A-6CFB1C290676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{06AA48CC-8E04-4810-8585-EACA79DAA615}"/>
   </bookViews>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C250C5-DD24-4718-8E47-C4555C23CD5B}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>20</v>
